--- a/svmx/test_lab/test_cases/sfmDelivery/sfmDelivery_excelData/data.xlsx
+++ b/svmx/test_lab/test_cases/sfmDelivery/sfmDelivery_excelData/data.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yadavthyagaraj/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="4650" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="rs_5358" sheetId="2" r:id="rId1"/>
+    <sheet name="searchResult" sheetId="4" r:id="rId2"/>
+    <sheet name="rs_5371" sheetId="5" r:id="rId3"/>
+    <sheet name="Options" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K12"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,25 +26,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
-  <si>
-    <t>"Select Id, SVMXC__ProcessID__c, SVMXC__Name__c, SVMXC__Rule_Type__c, SVMXC__Parent_Object_Criteria__c from SVMXC__ServiceMax_Processes__c Where SVMXC__ProcessID__c = 'EXPR038' OR SVMXC__ProcessID__c = 'EXPR037'"</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>undefined</t>
-  </si>
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>Equals</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Is Not Null</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Billing Type</t>
+  </si>
+  <si>
+    <t>Work Order - Product</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>Actual Initial Response</t>
+  </si>
+  <si>
+    <t>YESTERDAY</t>
+  </si>
+  <si>
+    <t>Actual Onsite Response</t>
+  </si>
+  <si>
+    <t>TODAY</t>
+  </si>
+  <si>
+    <t>Actual Resolution</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>Actual Restoration</t>
+  </si>
+  <si>
+    <t>TOMORROW</t>
+  </si>
+  <si>
+    <t>Date1</t>
+  </si>
+  <si>
+    <t>Date2</t>
+  </si>
+  <si>
+    <t>Date3</t>
+  </si>
+  <si>
+    <t>Work Order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -86,6 +135,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,19 +406,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="197.0" collapsed="true"/>
+    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/svmx/test_lab/test_cases/sfmDelivery/sfmDelivery_excelData/data.xlsx
+++ b/svmx/test_lab/test_cases/sfmDelivery/sfmDelivery_excelData/data.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="4650" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12915" windowHeight="2670" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="rs_5358" sheetId="2" r:id="rId1"/>
-    <sheet name="searchResult" sheetId="4" r:id="rId2"/>
-    <sheet name="rs_5371" sheetId="5" r:id="rId3"/>
-    <sheet name="Options" sheetId="7" r:id="rId4"/>
+    <sheet name="rs_6344" sheetId="8" r:id="rId2"/>
+    <sheet name="searchResult" sheetId="4" r:id="rId3"/>
+    <sheet name="rs_5371" sheetId="5" r:id="rId4"/>
+    <sheet name="Options" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K12"/>
+  <oleSize ref="A1:J6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>Order Status</t>
   </si>
@@ -49,12 +50,6 @@
     <t>Billing Type</t>
   </si>
   <si>
-    <t>Work Order - Product</t>
-  </si>
-  <si>
-    <t>Product ID</t>
-  </si>
-  <si>
     <t>Actual Initial Response</t>
   </si>
   <si>
@@ -70,9 +65,6 @@
     <t>Actual Resolution</t>
   </si>
   <si>
-    <t>NOW</t>
-  </si>
-  <si>
     <t>Actual Restoration</t>
   </si>
   <si>
@@ -89,6 +81,15 @@
   </si>
   <si>
     <t>Work Order</t>
+  </si>
+  <si>
+    <t>Work Order - Case</t>
+  </si>
+  <si>
+    <t>Scheduled Date</t>
+  </si>
+  <si>
+    <t>Canceled</t>
   </si>
 </sst>
 </file>
@@ -408,7 +409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -453,7 +456,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A2:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -462,14 +491,23 @@
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -477,12 +515,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -493,79 +531,79 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -573,12 +611,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,58 +627,58 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
